--- a/Code/Results/Cases/Case_5_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.85698743277278</v>
+        <v>14.22178750299507</v>
       </c>
       <c r="C2">
-        <v>15.68449929104092</v>
+        <v>9.39369637722708</v>
       </c>
       <c r="D2">
-        <v>7.527369038226553</v>
+        <v>9.703837241471204</v>
       </c>
       <c r="E2">
-        <v>11.07116105781761</v>
+        <v>13.86929718835303</v>
       </c>
       <c r="F2">
-        <v>23.12286061441486</v>
+        <v>30.11101205632314</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>11.82731167447622</v>
+        <v>19.67133455059014</v>
       </c>
       <c r="J2">
-        <v>6.335912566158253</v>
+        <v>9.798452562305377</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.5651025830955</v>
+        <v>16.57561220254406</v>
       </c>
       <c r="O2">
-        <v>15.53734497657911</v>
+        <v>22.23624642048586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.46921292956112</v>
+        <v>13.66403666633301</v>
       </c>
       <c r="C3">
-        <v>14.65027907247079</v>
+        <v>8.894706724168175</v>
       </c>
       <c r="D3">
-        <v>7.210875851483503</v>
+        <v>9.659539720370843</v>
       </c>
       <c r="E3">
-        <v>10.60522368423558</v>
+        <v>13.81211111198105</v>
       </c>
       <c r="F3">
-        <v>22.37753936494881</v>
+        <v>30.09216981917425</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>11.94533176064545</v>
+        <v>19.77229499921408</v>
       </c>
       <c r="J3">
-        <v>6.214840119291373</v>
+        <v>9.8039936253913</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.66022380213985</v>
+        <v>16.61480622921754</v>
       </c>
       <c r="O3">
-        <v>15.22469709661997</v>
+        <v>22.27421354860361</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56641247881076</v>
+        <v>13.31105359881824</v>
       </c>
       <c r="C4">
-        <v>13.97802263946132</v>
+        <v>8.573939683486827</v>
       </c>
       <c r="D4">
-        <v>7.012487560697098</v>
+        <v>9.633791041158243</v>
       </c>
       <c r="E4">
-        <v>10.31514701119661</v>
+        <v>13.77976551609274</v>
       </c>
       <c r="F4">
-        <v>21.93091289059355</v>
+        <v>30.08933451730041</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>12.03180979197476</v>
+        <v>19.8390040439844</v>
       </c>
       <c r="J4">
-        <v>6.143125244762262</v>
+        <v>9.809027471025177</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.72237194989407</v>
+        <v>16.64065590125057</v>
       </c>
       <c r="O4">
-        <v>15.04660007848171</v>
+        <v>22.30359263973622</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18569939393606</v>
+        <v>13.16477447573105</v>
       </c>
       <c r="C5">
-        <v>13.69466608630124</v>
+        <v>8.439734575707948</v>
       </c>
       <c r="D5">
-        <v>6.930735252703496</v>
+        <v>9.623670518990689</v>
       </c>
       <c r="E5">
-        <v>10.19610481559491</v>
+        <v>13.76729008282449</v>
       </c>
       <c r="F5">
-        <v>21.75189137746428</v>
+        <v>30.09037584019267</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>12.07037518252322</v>
+        <v>19.86737241629787</v>
       </c>
       <c r="J5">
-        <v>6.114578519696845</v>
+        <v>9.811489339460657</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.74862045663471</v>
+        <v>16.65163923458547</v>
       </c>
       <c r="O5">
-        <v>14.97749869349244</v>
+        <v>22.31708586296834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12170646147634</v>
+        <v>13.14034444435391</v>
       </c>
       <c r="C6">
-        <v>13.64704567937271</v>
+        <v>8.417243336494391</v>
       </c>
       <c r="D6">
-        <v>6.917109130764976</v>
+        <v>9.622012712074399</v>
       </c>
       <c r="E6">
-        <v>10.17629295090472</v>
+        <v>13.76526143887645</v>
       </c>
       <c r="F6">
-        <v>21.72235143160725</v>
+        <v>30.09068140754522</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>12.07697411756202</v>
+        <v>19.87215438875312</v>
       </c>
       <c r="J6">
-        <v>6.109879782702439</v>
+        <v>9.811922931155481</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.75303421092343</v>
+        <v>16.65349017066815</v>
       </c>
       <c r="O6">
-        <v>14.96623366561023</v>
+        <v>22.31941812057849</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.56133001914503</v>
+        <v>13.30909039399474</v>
       </c>
       <c r="C7">
-        <v>13.97423933313012</v>
+        <v>8.572143691079996</v>
       </c>
       <c r="D7">
-        <v>7.011388534356509</v>
+        <v>9.633653035206899</v>
       </c>
       <c r="E7">
-        <v>10.31354470285247</v>
+        <v>13.77959439841244</v>
       </c>
       <c r="F7">
-        <v>21.92848618262544</v>
+        <v>30.0893396671761</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>12.03231669187085</v>
+        <v>19.8393818398094</v>
       </c>
       <c r="J7">
-        <v>6.14273748715889</v>
+        <v>9.809059010158309</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.72272223419511</v>
+        <v>16.64080220588432</v>
       </c>
       <c r="O7">
-        <v>15.04565411186159</v>
+        <v>22.30376846215606</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.38896543222032</v>
+        <v>14.03177754272028</v>
       </c>
       <c r="C8">
-        <v>15.33560266755389</v>
+        <v>9.224699694391637</v>
       </c>
       <c r="D8">
-        <v>7.419148570403208</v>
+        <v>9.688267172098959</v>
       </c>
       <c r="E8">
-        <v>10.91142920116758</v>
+        <v>13.84901136460695</v>
       </c>
       <c r="F8">
-        <v>22.86371819296416</v>
+        <v>30.10270338333554</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>11.8649740976635</v>
+        <v>19.70516465932628</v>
       </c>
       <c r="J8">
-        <v>6.293633157836267</v>
+        <v>9.800024666501821</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.59711172435874</v>
+        <v>16.58875636316404</v>
       </c>
       <c r="O8">
-        <v>15.42666132111405</v>
+        <v>22.24807565219315</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57378026835571</v>
+        <v>15.35742809848736</v>
       </c>
       <c r="C9">
-        <v>17.7118896121187</v>
+        <v>10.38572983715067</v>
       </c>
       <c r="D9">
-        <v>8.182289158073822</v>
+        <v>9.806518158539882</v>
       </c>
       <c r="E9">
-        <v>12.04584196253202</v>
+        <v>14.00661780036621</v>
       </c>
       <c r="F9">
-        <v>24.7759112006217</v>
+        <v>30.19810684302134</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>11.65735925464225</v>
+        <v>19.47953020030432</v>
       </c>
       <c r="J9">
-        <v>6.609548231559146</v>
+        <v>9.79523935019774</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.38141448195688</v>
+        <v>16.50082290419505</v>
       </c>
       <c r="O9">
-        <v>16.28387996611322</v>
+        <v>22.18718336166931</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67486689053058</v>
+        <v>16.26633074300051</v>
       </c>
       <c r="C10">
-        <v>19.2822099336364</v>
+        <v>11.16169228561528</v>
       </c>
       <c r="D10">
-        <v>8.716010281155484</v>
+        <v>9.899696528500373</v>
       </c>
       <c r="E10">
-        <v>12.84905133560648</v>
+        <v>14.13481746408114</v>
       </c>
       <c r="F10">
-        <v>26.21732877265539</v>
+        <v>30.31012993904219</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>11.5917166101981</v>
+        <v>19.33682660710959</v>
       </c>
       <c r="J10">
-        <v>6.852779844431576</v>
+        <v>9.799580493783678</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.24302284164708</v>
+        <v>16.44479100444371</v>
       </c>
       <c r="O10">
-        <v>16.9802327484579</v>
+        <v>22.17211329713646</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.5798967363308</v>
+        <v>16.66413035629505</v>
       </c>
       <c r="C11">
-        <v>19.95926362380274</v>
+        <v>11.49726837044938</v>
       </c>
       <c r="D11">
-        <v>8.952223048611776</v>
+        <v>9.943339619410892</v>
       </c>
       <c r="E11">
-        <v>13.20680099597992</v>
+        <v>14.1956702546349</v>
       </c>
       <c r="F11">
-        <v>26.87904447255062</v>
+        <v>30.37010287608231</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>11.58374164757979</v>
+        <v>19.27695396906568</v>
       </c>
       <c r="J11">
-        <v>6.965639626284243</v>
+        <v>9.803253196481384</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.18477798481366</v>
+        <v>16.42115394043351</v>
       </c>
       <c r="O11">
-        <v>17.31125315213819</v>
+        <v>22.17173033711716</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.91539638210744</v>
+        <v>16.81240739323342</v>
       </c>
       <c r="C12">
-        <v>20.21035236964126</v>
+        <v>11.62179498719444</v>
       </c>
       <c r="D12">
-        <v>9.040678548339248</v>
+        <v>9.960036580241081</v>
       </c>
       <c r="E12">
-        <v>13.34110810840486</v>
+        <v>14.21906326675251</v>
       </c>
       <c r="F12">
-        <v>27.13035275103669</v>
+        <v>30.39409804200044</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>11.58412377541714</v>
+        <v>19.25501035278481</v>
       </c>
       <c r="J12">
-        <v>7.008679348533555</v>
+        <v>9.804887145941425</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.16343254018955</v>
+        <v>16.4124689268118</v>
       </c>
       <c r="O12">
-        <v>17.43862943135244</v>
+        <v>22.17251733069078</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84346005675523</v>
+        <v>16.78057985393075</v>
       </c>
       <c r="C13">
-        <v>20.15651039761763</v>
+        <v>11.59508992327099</v>
       </c>
       <c r="D13">
-        <v>9.021672878913529</v>
+        <v>9.956433185167219</v>
       </c>
       <c r="E13">
-        <v>13.31223535991947</v>
+        <v>14.21400986972647</v>
       </c>
       <c r="F13">
-        <v>27.07619831841551</v>
+        <v>30.38887331656151</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>11.58388609051787</v>
+        <v>19.25970383035609</v>
       </c>
       <c r="J13">
-        <v>6.999396762989655</v>
+        <v>9.804524447450257</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.16799749557224</v>
+        <v>16.41432758491269</v>
       </c>
       <c r="O13">
-        <v>17.4111068858835</v>
+        <v>22.1723063738193</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.60764260649688</v>
+        <v>16.67637708329384</v>
       </c>
       <c r="C14">
-        <v>19.98002660926737</v>
+        <v>11.50756455442098</v>
       </c>
       <c r="D14">
-        <v>8.959520471078227</v>
+        <v>9.944709935969517</v>
       </c>
       <c r="E14">
-        <v>13.21787419133216</v>
+        <v>14.19758789786512</v>
       </c>
       <c r="F14">
-        <v>26.89970576639775</v>
+        <v>30.37205129698316</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>11.58370343579421</v>
+        <v>19.27513402680545</v>
       </c>
       <c r="J14">
-        <v>6.969174556908538</v>
+        <v>9.803382754978694</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.18300743871051</v>
+        <v>16.42043409434974</v>
       </c>
       <c r="O14">
-        <v>17.32169198834513</v>
+        <v>22.17177640003412</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.4622605071417</v>
+        <v>16.61223944208493</v>
       </c>
       <c r="C15">
-        <v>19.87123742137588</v>
+        <v>11.45361964621836</v>
       </c>
       <c r="D15">
-        <v>8.921319777997835</v>
+        <v>9.937550970903807</v>
       </c>
       <c r="E15">
-        <v>13.15992185404996</v>
+        <v>14.18757400959682</v>
       </c>
       <c r="F15">
-        <v>26.79169071233373</v>
+        <v>30.36191426282698</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>11.58404220548191</v>
+        <v>19.28468049168449</v>
       </c>
       <c r="J15">
-        <v>6.950701502202085</v>
+        <v>9.802715072665505</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.19229504643475</v>
+        <v>16.42420911185271</v>
       </c>
       <c r="O15">
-        <v>17.26718601439569</v>
+        <v>22.17157317619421</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.6147066709436</v>
+        <v>16.24000876108173</v>
       </c>
       <c r="C16">
-        <v>19.23721799037069</v>
+        <v>11.13940715544861</v>
       </c>
       <c r="D16">
-        <v>8.70043655612459</v>
+        <v>9.89686874427135</v>
       </c>
       <c r="E16">
-        <v>12.82551178843066</v>
+        <v>14.13089031381781</v>
       </c>
       <c r="F16">
-        <v>26.17419296659413</v>
+        <v>30.30639100576419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>11.59269992927452</v>
+        <v>19.3408412232166</v>
       </c>
       <c r="J16">
-        <v>6.845447293152428</v>
+        <v>9.799374559633005</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.24692683852724</v>
+        <v>16.44637296825818</v>
       </c>
       <c r="O16">
-        <v>16.95888446883867</v>
+        <v>22.1722686938948</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.08181659563374</v>
+        <v>16.00756301475243</v>
       </c>
       <c r="C17">
-        <v>18.83876155593239</v>
+        <v>10.94215308315854</v>
       </c>
       <c r="D17">
-        <v>8.563209733774977</v>
+        <v>9.872225904028003</v>
       </c>
       <c r="E17">
-        <v>12.61835328097181</v>
+        <v>14.09675525868707</v>
       </c>
       <c r="F17">
-        <v>25.79681324369505</v>
+        <v>30.27463028012304</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>11.60379721154333</v>
+        <v>19.3765883895725</v>
       </c>
       <c r="J17">
-        <v>6.781431818603284</v>
+        <v>9.797759483925255</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.28167080946514</v>
+        <v>16.4604437869993</v>
       </c>
       <c r="O17">
-        <v>16.77338348012321</v>
+        <v>22.17435427923074</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.77052880072637</v>
+        <v>15.87239736474448</v>
       </c>
       <c r="C18">
-        <v>18.60606557287752</v>
+        <v>10.82706075515996</v>
       </c>
       <c r="D18">
-        <v>8.483663279218986</v>
+        <v>9.85817082993441</v>
       </c>
       <c r="E18">
-        <v>12.49848545731744</v>
+        <v>14.07736114111405</v>
       </c>
       <c r="F18">
-        <v>25.58032612680288</v>
+        <v>30.25721150532636</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>11.61222461908554</v>
+        <v>19.39762375882542</v>
       </c>
       <c r="J18">
-        <v>6.744820891252848</v>
+        <v>9.796990416609429</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.30209579659698</v>
+        <v>16.46871130996559</v>
       </c>
       <c r="O18">
-        <v>16.66803043334676</v>
+        <v>22.17616304516275</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.66430801748226</v>
+        <v>15.82638385594282</v>
       </c>
       <c r="C19">
-        <v>18.52667317394382</v>
+        <v>10.78781283687904</v>
       </c>
       <c r="D19">
-        <v>8.456625819706332</v>
+        <v>9.85343274317141</v>
       </c>
       <c r="E19">
-        <v>12.45777968194768</v>
+        <v>14.07083620188029</v>
       </c>
       <c r="F19">
-        <v>25.50713001746057</v>
+        <v>30.2514599651899</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>11.6154214243964</v>
+        <v>19.40482736995183</v>
       </c>
       <c r="J19">
-        <v>6.732461495206668</v>
+        <v>9.796757510904005</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.30908615296401</v>
+        <v>16.4715405133506</v>
       </c>
       <c r="O19">
-        <v>16.63259095385089</v>
+        <v>22.17688004035956</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.13903813015937</v>
+        <v>16.03246013238663</v>
       </c>
       <c r="C20">
-        <v>18.88154118463666</v>
+        <v>10.96332089404367</v>
       </c>
       <c r="D20">
-        <v>8.577882017595527</v>
+        <v>9.874836951210106</v>
       </c>
       <c r="E20">
-        <v>12.64048027555613</v>
+        <v>14.10036431692925</v>
       </c>
       <c r="F20">
-        <v>25.83692784293497</v>
+        <v>30.2779234554144</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>11.60240244579446</v>
+        <v>19.37273390359694</v>
       </c>
       <c r="J20">
-        <v>6.788224859505325</v>
+        <v>9.797914870988441</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.27792636307014</v>
+        <v>16.4589278823909</v>
       </c>
       <c r="O20">
-        <v>16.79299163466882</v>
+        <v>22.17406920429874</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.67710304294238</v>
+        <v>16.7070488298273</v>
       </c>
       <c r="C21">
-        <v>20.03200738332409</v>
+        <v>11.53334236010009</v>
       </c>
       <c r="D21">
-        <v>8.977803415020107</v>
+        <v>9.948148800849326</v>
       </c>
       <c r="E21">
-        <v>13.24562241680372</v>
+        <v>14.20240206964578</v>
       </c>
       <c r="F21">
-        <v>26.95152698711987</v>
+        <v>30.37695756497387</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>11.58366271341969</v>
+        <v>19.27058199476645</v>
       </c>
       <c r="J21">
-        <v>6.978043465676641</v>
+        <v>9.803711506497299</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.17857908795091</v>
+        <v>16.41863325390795</v>
       </c>
       <c r="O21">
-        <v>17.34790048909277</v>
+        <v>22.17190676523548</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.64030181731397</v>
+        <v>17.13412968299703</v>
       </c>
       <c r="C22">
-        <v>20.75306341308167</v>
+        <v>11.89101370767598</v>
       </c>
       <c r="D22">
-        <v>9.233371956196939</v>
+        <v>9.997049832952735</v>
       </c>
       <c r="E22">
-        <v>13.63430890273353</v>
+        <v>14.27111872608314</v>
       </c>
       <c r="F22">
-        <v>27.68420149521197</v>
+        <v>30.44916379081098</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>11.59136424021086</v>
+        <v>19.20806980471752</v>
       </c>
       <c r="J22">
-        <v>7.103856651074694</v>
+        <v>9.808916807395217</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.11780961886085</v>
+        <v>16.39384761975928</v>
       </c>
       <c r="O22">
-        <v>17.72236726533864</v>
+        <v>22.17592601907452</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.13004001982254</v>
+        <v>16.90748343254125</v>
       </c>
       <c r="C23">
-        <v>20.37102123885416</v>
+        <v>11.70149088636061</v>
       </c>
       <c r="D23">
-        <v>9.097513997832039</v>
+        <v>9.97086354801713</v>
       </c>
       <c r="E23">
-        <v>13.42750027007147</v>
+        <v>14.23426280502721</v>
       </c>
       <c r="F23">
-        <v>27.29280957807837</v>
+        <v>30.40994563191617</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>11.58534384596129</v>
+        <v>19.24104368024516</v>
       </c>
       <c r="J23">
-        <v>7.036551747076028</v>
+        <v>9.806009357464816</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.14985100197594</v>
+        <v>16.40693458666685</v>
       </c>
       <c r="O23">
-        <v>17.52143391275117</v>
+        <v>22.1732835661038</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.1131836122728</v>
+        <v>16.0212089011229</v>
       </c>
       <c r="C24">
-        <v>18.86221178891773</v>
+        <v>10.95375618206884</v>
       </c>
       <c r="D24">
-        <v>8.571250708113833</v>
+        <v>9.873656145821391</v>
       </c>
       <c r="E24">
-        <v>12.63047905326104</v>
+        <v>14.09873194234462</v>
       </c>
       <c r="F24">
-        <v>25.81879054727384</v>
+        <v>30.27643199067597</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>11.6030266613939</v>
+        <v>19.37447500978024</v>
       </c>
       <c r="J24">
-        <v>6.78515312511546</v>
+        <v>9.797844123719148</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.27961782744661</v>
+        <v>16.45961266828392</v>
       </c>
       <c r="O24">
-        <v>16.78412275587923</v>
+        <v>22.17419618745662</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.75447978916975</v>
+        <v>15.00963879198647</v>
       </c>
       <c r="C25">
-        <v>17.10012086765199</v>
+        <v>10.08489064325125</v>
       </c>
       <c r="D25">
-        <v>7.980282656518953</v>
+        <v>9.773384200784182</v>
       </c>
       <c r="E25">
-        <v>11.74383170672101</v>
+        <v>13.96174946392132</v>
       </c>
       <c r="F25">
-        <v>24.25145526922998</v>
+        <v>30.16490827828055</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>11.69926608463137</v>
+        <v>19.53653142203374</v>
       </c>
       <c r="J25">
-        <v>6.5220546509224</v>
+        <v>9.795151714684291</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.43635051651871</v>
+        <v>16.52310291909228</v>
       </c>
       <c r="O25">
-        <v>16.04022470089572</v>
+        <v>22.19845889362177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.22178750299507</v>
+        <v>20.8569874327728</v>
       </c>
       <c r="C2">
-        <v>9.39369637722708</v>
+        <v>15.68449929104091</v>
       </c>
       <c r="D2">
-        <v>9.703837241471204</v>
+        <v>7.527369038226469</v>
       </c>
       <c r="E2">
-        <v>13.86929718835303</v>
+        <v>11.0711610578176</v>
       </c>
       <c r="F2">
-        <v>30.11101205632314</v>
+        <v>23.12286061441471</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>19.67133455059014</v>
+        <v>11.82731167447609</v>
       </c>
       <c r="J2">
-        <v>9.798452562305377</v>
+        <v>6.335912566158293</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.57561220254406</v>
+        <v>11.56510258309544</v>
       </c>
       <c r="O2">
-        <v>22.23624642048586</v>
+        <v>15.53734497657898</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.66403666633301</v>
+        <v>19.46921292956111</v>
       </c>
       <c r="C3">
-        <v>8.894706724168175</v>
+        <v>14.65027907247081</v>
       </c>
       <c r="D3">
-        <v>9.659539720370843</v>
+        <v>7.210875851483467</v>
       </c>
       <c r="E3">
-        <v>13.81211111198105</v>
+        <v>10.60522368423555</v>
       </c>
       <c r="F3">
-        <v>30.09216981917425</v>
+        <v>22.37753936494889</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>19.77229499921408</v>
+        <v>11.94533176064554</v>
       </c>
       <c r="J3">
-        <v>9.8039936253913</v>
+        <v>6.214840119291376</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.61480622921754</v>
+        <v>11.66022380213994</v>
       </c>
       <c r="O3">
-        <v>22.27421354860361</v>
+        <v>15.22469709662005</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.31105359881824</v>
+        <v>18.56641247881086</v>
       </c>
       <c r="C4">
-        <v>8.573939683486827</v>
+        <v>13.97802263946132</v>
       </c>
       <c r="D4">
-        <v>9.633791041158243</v>
+        <v>7.012487560697147</v>
       </c>
       <c r="E4">
-        <v>13.77976551609274</v>
+        <v>10.31514701119661</v>
       </c>
       <c r="F4">
-        <v>30.08933451730041</v>
+        <v>21.93091289059341</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>19.8390040439844</v>
+        <v>12.03180979197454</v>
       </c>
       <c r="J4">
-        <v>9.809027471025177</v>
+        <v>6.14312524476226</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.64065590125057</v>
+        <v>11.722371949894</v>
       </c>
       <c r="O4">
-        <v>22.30359263973622</v>
+        <v>15.04660007848155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.16477447573105</v>
+        <v>18.1856993939361</v>
       </c>
       <c r="C5">
-        <v>8.439734575707948</v>
+        <v>13.69466608630104</v>
       </c>
       <c r="D5">
-        <v>9.623670518990689</v>
+        <v>6.93073525270354</v>
       </c>
       <c r="E5">
-        <v>13.76729008282449</v>
+        <v>10.19610481559493</v>
       </c>
       <c r="F5">
-        <v>30.09037584019267</v>
+        <v>21.75189137746427</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>19.86737241629787</v>
+        <v>12.07037518252306</v>
       </c>
       <c r="J5">
-        <v>9.811489339460657</v>
+        <v>6.114578519696848</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.65163923458547</v>
+        <v>11.74862045663464</v>
       </c>
       <c r="O5">
-        <v>22.31708586296834</v>
+        <v>14.9774986934924</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.14034444435391</v>
+        <v>18.12170646147635</v>
       </c>
       <c r="C6">
-        <v>8.417243336494391</v>
+        <v>13.64704567937256</v>
       </c>
       <c r="D6">
-        <v>9.622012712074399</v>
+        <v>6.917109130765013</v>
       </c>
       <c r="E6">
-        <v>13.76526143887645</v>
+        <v>10.17629295090473</v>
       </c>
       <c r="F6">
-        <v>30.09068140754522</v>
+        <v>21.72235143160742</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>19.87215438875312</v>
+        <v>12.07697411756212</v>
       </c>
       <c r="J6">
-        <v>9.811922931155481</v>
+        <v>6.109879782702476</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.65349017066815</v>
+        <v>11.75303421092352</v>
       </c>
       <c r="O6">
-        <v>22.31941812057849</v>
+        <v>14.96623366561036</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.30909039399474</v>
+        <v>18.56133001914503</v>
       </c>
       <c r="C7">
-        <v>8.572143691079996</v>
+        <v>13.97423933313014</v>
       </c>
       <c r="D7">
-        <v>9.633653035206899</v>
+        <v>7.011388534356451</v>
       </c>
       <c r="E7">
-        <v>13.77959439841244</v>
+        <v>10.31354470285242</v>
       </c>
       <c r="F7">
-        <v>30.0893396671761</v>
+        <v>21.92848618262552</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>19.8393818398094</v>
+        <v>12.03231669187095</v>
       </c>
       <c r="J7">
-        <v>9.809059010158309</v>
+        <v>6.142737487158914</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.64080220588432</v>
+        <v>11.72272223419514</v>
       </c>
       <c r="O7">
-        <v>22.30376846215606</v>
+        <v>15.04565411186171</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.03177754272028</v>
+        <v>20.3889654322203</v>
       </c>
       <c r="C8">
-        <v>9.224699694391637</v>
+        <v>15.33560266755387</v>
       </c>
       <c r="D8">
-        <v>9.688267172098959</v>
+        <v>7.419148570403178</v>
       </c>
       <c r="E8">
-        <v>13.84901136460695</v>
+        <v>10.91142920116753</v>
       </c>
       <c r="F8">
-        <v>30.10270338333554</v>
+        <v>22.86371819296414</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>19.70516465932628</v>
+        <v>11.86497409766356</v>
       </c>
       <c r="J8">
-        <v>9.800024666501821</v>
+        <v>6.293633157836259</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.58875636316404</v>
+        <v>11.59711172435874</v>
       </c>
       <c r="O8">
-        <v>22.24807565219315</v>
+        <v>15.42666132111407</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.35742809848736</v>
+        <v>23.57378026835574</v>
       </c>
       <c r="C9">
-        <v>10.38572983715067</v>
+        <v>17.71188961211863</v>
       </c>
       <c r="D9">
-        <v>9.806518158539882</v>
+        <v>8.182289158073763</v>
       </c>
       <c r="E9">
-        <v>14.00661780036621</v>
+        <v>12.04584196253202</v>
       </c>
       <c r="F9">
-        <v>30.19810684302134</v>
+        <v>24.77591120062171</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>19.47953020030432</v>
+        <v>11.65735925464223</v>
       </c>
       <c r="J9">
-        <v>9.79523935019774</v>
+        <v>6.6095482315592</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.50082290419505</v>
+        <v>11.38141448195684</v>
       </c>
       <c r="O9">
-        <v>22.18718336166931</v>
+        <v>16.28387996611325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.26633074300051</v>
+        <v>25.67486689053055</v>
       </c>
       <c r="C10">
-        <v>11.16169228561528</v>
+        <v>19.28220993363639</v>
       </c>
       <c r="D10">
-        <v>9.899696528500373</v>
+        <v>8.716010281155537</v>
       </c>
       <c r="E10">
-        <v>14.13481746408114</v>
+        <v>12.8490513356065</v>
       </c>
       <c r="F10">
-        <v>30.31012993904219</v>
+        <v>26.2173287726555</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>19.33682660710959</v>
+        <v>11.59171661019818</v>
       </c>
       <c r="J10">
-        <v>9.799580493783678</v>
+        <v>6.852779844431553</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.44479100444371</v>
+        <v>11.24302284164707</v>
       </c>
       <c r="O10">
-        <v>22.17211329713646</v>
+        <v>16.98023274845797</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.66413035629505</v>
+        <v>26.5798967363308</v>
       </c>
       <c r="C11">
-        <v>11.49726837044938</v>
+        <v>19.95926362380272</v>
       </c>
       <c r="D11">
-        <v>9.943339619410892</v>
+        <v>8.952223048611797</v>
       </c>
       <c r="E11">
-        <v>14.1956702546349</v>
+        <v>13.20680099597992</v>
       </c>
       <c r="F11">
-        <v>30.37010287608231</v>
+        <v>26.87904447255065</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>19.27695396906568</v>
+        <v>11.58374164757981</v>
       </c>
       <c r="J11">
-        <v>9.803253196481384</v>
+        <v>6.965639626284226</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.42115394043351</v>
+        <v>11.18477798481369</v>
       </c>
       <c r="O11">
-        <v>22.17173033711716</v>
+        <v>17.3112531521382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.81240739323342</v>
+        <v>26.91539638210741</v>
       </c>
       <c r="C12">
-        <v>11.62179498719444</v>
+        <v>20.21035236964129</v>
       </c>
       <c r="D12">
-        <v>9.960036580241081</v>
+        <v>9.040678548339208</v>
       </c>
       <c r="E12">
-        <v>14.21906326675251</v>
+        <v>13.34110810840484</v>
       </c>
       <c r="F12">
-        <v>30.39409804200044</v>
+        <v>27.1303527510367</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>19.25501035278481</v>
+        <v>11.58412377541723</v>
       </c>
       <c r="J12">
-        <v>9.804887145941425</v>
+        <v>7.008679348533542</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.4124689268118</v>
+        <v>11.16343254018956</v>
       </c>
       <c r="O12">
-        <v>22.17251733069078</v>
+        <v>17.43862943135249</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.78057985393075</v>
+        <v>26.84346005675528</v>
       </c>
       <c r="C13">
-        <v>11.59508992327099</v>
+        <v>20.15651039761764</v>
       </c>
       <c r="D13">
-        <v>9.956433185167219</v>
+        <v>9.021672878913463</v>
       </c>
       <c r="E13">
-        <v>14.21400986972647</v>
+        <v>13.31223535991945</v>
       </c>
       <c r="F13">
-        <v>30.38887331656151</v>
+        <v>27.07619831841549</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>19.25970383035609</v>
+        <v>11.58388609051785</v>
       </c>
       <c r="J13">
-        <v>9.804524447450257</v>
+        <v>6.999396762989615</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.41432758491269</v>
+        <v>11.16799749557226</v>
       </c>
       <c r="O13">
-        <v>22.1723063738193</v>
+        <v>17.41110688588348</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.67637708329384</v>
+        <v>26.60764260649693</v>
       </c>
       <c r="C14">
-        <v>11.50756455442098</v>
+        <v>19.98002660926737</v>
       </c>
       <c r="D14">
-        <v>9.944709935969517</v>
+        <v>8.959520471078191</v>
       </c>
       <c r="E14">
-        <v>14.19758789786512</v>
+        <v>13.21787419133211</v>
       </c>
       <c r="F14">
-        <v>30.37205129698316</v>
+        <v>26.89970576639772</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>19.27513402680545</v>
+        <v>11.58370343579421</v>
       </c>
       <c r="J14">
-        <v>9.803382754978694</v>
+        <v>6.969174556908506</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.42043409434974</v>
+        <v>11.18300743871051</v>
       </c>
       <c r="O14">
-        <v>22.17177640003412</v>
+        <v>17.32169198834514</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.61223944208493</v>
+        <v>26.46226050714172</v>
       </c>
       <c r="C15">
-        <v>11.45361964621836</v>
+        <v>19.87123742137585</v>
       </c>
       <c r="D15">
-        <v>9.937550970903807</v>
+        <v>8.921319777997811</v>
       </c>
       <c r="E15">
-        <v>14.18757400959682</v>
+        <v>13.15992185404994</v>
       </c>
       <c r="F15">
-        <v>30.36191426282698</v>
+        <v>26.79169071233371</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>19.28468049168449</v>
+        <v>11.58404220548188</v>
       </c>
       <c r="J15">
-        <v>9.802715072665505</v>
+        <v>6.950701502202052</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.42420911185271</v>
+        <v>11.19229504643472</v>
       </c>
       <c r="O15">
-        <v>22.17157317619421</v>
+        <v>17.26718601439568</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.24000876108173</v>
+        <v>25.61470667094356</v>
       </c>
       <c r="C16">
-        <v>11.13940715544861</v>
+        <v>19.23721799037077</v>
       </c>
       <c r="D16">
-        <v>9.89686874427135</v>
+        <v>8.700436556124561</v>
       </c>
       <c r="E16">
-        <v>14.13089031381781</v>
+        <v>12.82551178843066</v>
       </c>
       <c r="F16">
-        <v>30.30639100576419</v>
+        <v>26.17419296659421</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>19.3408412232166</v>
+        <v>11.5926999292747</v>
       </c>
       <c r="J16">
-        <v>9.799374559633005</v>
+        <v>6.845447293152429</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.44637296825818</v>
+        <v>11.24692683852729</v>
       </c>
       <c r="O16">
-        <v>22.1722686938948</v>
+        <v>16.95888446883874</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.00756301475243</v>
+        <v>25.08181659563381</v>
       </c>
       <c r="C17">
-        <v>10.94215308315854</v>
+        <v>18.83876155593231</v>
       </c>
       <c r="D17">
-        <v>9.872225904028003</v>
+        <v>8.563209733774977</v>
       </c>
       <c r="E17">
-        <v>14.09675525868707</v>
+        <v>12.61835328097185</v>
       </c>
       <c r="F17">
-        <v>30.27463028012304</v>
+        <v>25.79681324369503</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>19.3765883895725</v>
+        <v>11.6037972115432</v>
       </c>
       <c r="J17">
-        <v>9.797759483925255</v>
+        <v>6.781431818603309</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.4604437869993</v>
+        <v>11.28167080946504</v>
       </c>
       <c r="O17">
-        <v>22.17435427923074</v>
+        <v>16.77338348012317</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.87239736474448</v>
+        <v>24.7705288007264</v>
       </c>
       <c r="C18">
-        <v>10.82706075515996</v>
+        <v>18.60606557287749</v>
       </c>
       <c r="D18">
-        <v>9.85817082993441</v>
+        <v>8.483663279218941</v>
       </c>
       <c r="E18">
-        <v>14.07736114111405</v>
+        <v>12.49848545731745</v>
       </c>
       <c r="F18">
-        <v>30.25721150532636</v>
+        <v>25.58032612680286</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>19.39762375882542</v>
+        <v>11.61222461908554</v>
       </c>
       <c r="J18">
-        <v>9.796990416609429</v>
+        <v>6.74482089125288</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.46871130996559</v>
+        <v>11.302095796597</v>
       </c>
       <c r="O18">
-        <v>22.17616304516275</v>
+        <v>16.66803043334675</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.82638385594282</v>
+        <v>24.66430801748222</v>
       </c>
       <c r="C19">
-        <v>10.78781283687904</v>
+        <v>18.52667317394371</v>
       </c>
       <c r="D19">
-        <v>9.85343274317141</v>
+        <v>8.45662581970628</v>
       </c>
       <c r="E19">
-        <v>14.07083620188029</v>
+        <v>12.45777968194765</v>
       </c>
       <c r="F19">
-        <v>30.2514599651899</v>
+        <v>25.50713001746061</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>19.40482736995183</v>
+        <v>11.61542142439649</v>
       </c>
       <c r="J19">
-        <v>9.796757510904005</v>
+        <v>6.732461495206676</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.4715405133506</v>
+        <v>11.30908615296404</v>
       </c>
       <c r="O19">
-        <v>22.17688004035956</v>
+        <v>16.63259095385097</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.03246013238663</v>
+        <v>25.13903813015942</v>
       </c>
       <c r="C20">
-        <v>10.96332089404367</v>
+        <v>18.88154118463659</v>
       </c>
       <c r="D20">
-        <v>9.874836951210106</v>
+        <v>8.577882017595476</v>
       </c>
       <c r="E20">
-        <v>14.10036431692925</v>
+        <v>12.64048027555611</v>
       </c>
       <c r="F20">
-        <v>30.2779234554144</v>
+        <v>25.83692784293496</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>19.37273390359694</v>
+        <v>11.60240244579448</v>
       </c>
       <c r="J20">
-        <v>9.797914870988441</v>
+        <v>6.788224859505315</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.4589278823909</v>
+        <v>11.27792636307013</v>
       </c>
       <c r="O20">
-        <v>22.17406920429874</v>
+        <v>16.7929916346688</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.7070488298273</v>
+        <v>26.67710304294238</v>
       </c>
       <c r="C21">
-        <v>11.53334236010009</v>
+        <v>20.03200738332421</v>
       </c>
       <c r="D21">
-        <v>9.948148800849326</v>
+        <v>8.977803415020041</v>
       </c>
       <c r="E21">
-        <v>14.20240206964578</v>
+        <v>13.2456224168037</v>
       </c>
       <c r="F21">
-        <v>30.37695756497387</v>
+        <v>26.95152698711983</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>19.27058199476645</v>
+        <v>11.58366271341969</v>
       </c>
       <c r="J21">
-        <v>9.803711506497299</v>
+        <v>6.978043465676649</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.41863325390795</v>
+        <v>11.17857908795087</v>
       </c>
       <c r="O21">
-        <v>22.17190676523548</v>
+        <v>17.34790048909275</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.13412968299703</v>
+        <v>27.640301817314</v>
       </c>
       <c r="C22">
-        <v>11.89101370767598</v>
+        <v>20.75306341308169</v>
       </c>
       <c r="D22">
-        <v>9.997049832952735</v>
+        <v>9.233371956196939</v>
       </c>
       <c r="E22">
-        <v>14.27111872608314</v>
+        <v>13.63430890273351</v>
       </c>
       <c r="F22">
-        <v>30.44916379081098</v>
+        <v>27.68420149521201</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>19.20806980471752</v>
+        <v>11.59136424021092</v>
       </c>
       <c r="J22">
-        <v>9.808916807395217</v>
+        <v>7.103856651074643</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.39384761975928</v>
+        <v>11.11780961886088</v>
       </c>
       <c r="O22">
-        <v>22.17592601907452</v>
+        <v>17.72236726533868</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.90748343254125</v>
+        <v>27.13004001982264</v>
       </c>
       <c r="C23">
-        <v>11.70149088636061</v>
+        <v>20.37102123885413</v>
       </c>
       <c r="D23">
-        <v>9.97086354801713</v>
+        <v>9.097513997832047</v>
       </c>
       <c r="E23">
-        <v>14.23426280502721</v>
+        <v>13.42750027007149</v>
       </c>
       <c r="F23">
-        <v>30.40994563191617</v>
+        <v>27.29280957807841</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>19.24104368024516</v>
+        <v>11.58534384596128</v>
       </c>
       <c r="J23">
-        <v>9.806009357464816</v>
+        <v>7.03655174707606</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.40693458666685</v>
+        <v>11.14985100197594</v>
       </c>
       <c r="O23">
-        <v>22.1732835661038</v>
+        <v>17.5214339127512</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0212089011229</v>
+        <v>25.11318361227279</v>
       </c>
       <c r="C24">
-        <v>10.95375618206884</v>
+        <v>18.86221178891775</v>
       </c>
       <c r="D24">
-        <v>9.873656145821391</v>
+        <v>8.571250708113794</v>
       </c>
       <c r="E24">
-        <v>14.09873194234462</v>
+        <v>12.63047905326103</v>
       </c>
       <c r="F24">
-        <v>30.27643199067597</v>
+        <v>25.81879054727389</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>19.37447500978024</v>
+        <v>11.603026661394</v>
       </c>
       <c r="J24">
-        <v>9.797844123719148</v>
+        <v>6.785153125115468</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.45961266828392</v>
+        <v>11.27961782744667</v>
       </c>
       <c r="O24">
-        <v>22.17419618745662</v>
+        <v>16.78412275587933</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.00963879198647</v>
+        <v>22.7544797891697</v>
       </c>
       <c r="C25">
-        <v>10.08489064325125</v>
+        <v>17.10012086765202</v>
       </c>
       <c r="D25">
-        <v>9.773384200784182</v>
+        <v>7.980282656518865</v>
       </c>
       <c r="E25">
-        <v>13.96174946392132</v>
+        <v>11.74383170672093</v>
       </c>
       <c r="F25">
-        <v>30.16490827828055</v>
+        <v>24.25145526923</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>19.53653142203374</v>
+        <v>11.69926608463149</v>
       </c>
       <c r="J25">
-        <v>9.795151714684291</v>
+        <v>6.522054650922395</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.52310291909228</v>
+        <v>11.43635051651873</v>
       </c>
       <c r="O25">
-        <v>22.19845889362177</v>
+        <v>16.04022470089578</v>
       </c>
     </row>
   </sheetData>
